--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_6B6928A0CC5F9DB6EAAAB90702522D4A2D3041BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033C01EA-AA44-4E41-AAF6-968EB8C8A9E4}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="14940" windowWidth="21855" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <mn:sheet xmlns:mn="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Introduction" r:id="rId3" sheetId="3"/>
-    <mn:sheet xmlns:mn="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Field List" r:id="rId2" sheetId="2"/>
-    <sheet name="Data" r:id="rId1" sheetId="1"/>
+    <sheet name="Introduction" sheetId="3" r:id="rId1"/>
+    <sheet name="Field List" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="252">
   <si>
     <t>Asset Mass Change</t>
   </si>
@@ -363,7 +372,7 @@
     <t>number</t>
   </si>
   <si>
-    <t>10  </t>
+    <t>10</t>
   </si>
   <si>
     <t>Company Code</t>
@@ -372,13 +381,13 @@
     <t>text</t>
   </si>
   <si>
-    <t>4   </t>
+    <t>4</t>
   </si>
   <si>
     <t>Main Asset Number</t>
   </si>
   <si>
-    <t>12  </t>
+    <t>12</t>
   </si>
   <si>
     <t>Asset Subnumber</t>
@@ -387,7 +396,7 @@
     <t>Asset Description</t>
   </si>
   <si>
-    <t>50  </t>
+    <t>50</t>
   </si>
   <si>
     <t>Additional asset description</t>
@@ -396,19 +405,19 @@
     <t>Serial Number</t>
   </si>
   <si>
-    <t>18  </t>
+    <t>18</t>
   </si>
   <si>
     <t>Inventory Number</t>
   </si>
   <si>
-    <t>25  </t>
+    <t>25</t>
   </si>
   <si>
     <t>Base Unit of Measure</t>
   </si>
   <si>
-    <t>3   </t>
+    <t>3</t>
   </si>
   <si>
     <t>Last Inventory Date</t>
@@ -417,19 +426,19 @@
     <t>date</t>
   </si>
   <si>
-    <t>8   </t>
+    <t>8</t>
   </si>
   <si>
     <t>Inventory Indicator</t>
   </si>
   <si>
-    <t>1   </t>
+    <t>1</t>
   </si>
   <si>
     <t>Supplementary Inventory Specifications</t>
   </si>
   <si>
-    <t>15  </t>
+    <t>15</t>
   </si>
   <si>
     <t>Date for Beginning of Validity</t>
@@ -441,7 +450,7 @@
     <t>Work Breakdown Structure Element (WBS Element)</t>
   </si>
   <si>
-    <t>24  </t>
+    <t>24</t>
   </si>
   <si>
     <t>Profit Center</t>
@@ -471,7 +480,7 @@
     <t>Manufacturer of asset</t>
   </si>
   <si>
-    <t>30  </t>
+    <t>30</t>
   </si>
   <si>
     <t>Asset's Country/Region of Origin</t>
@@ -483,13 +492,13 @@
     <t>In-House Production Percentage</t>
   </si>
   <si>
-    <t>5   </t>
+    <t>5</t>
   </si>
   <si>
     <t>Company ID of Trading Partner</t>
   </si>
   <si>
-    <t>6   </t>
+    <t>6</t>
   </si>
   <si>
     <t>Original Asset That Was Transferred</t>
@@ -504,7 +513,7 @@
     <t>Fiscal Year of Original Acquisition</t>
   </si>
   <si>
-    <t>23  </t>
+    <t>23</t>
   </si>
   <si>
     <t>Original Acquisition Value Currency</t>
@@ -513,7 +522,7 @@
     <t>Ledger in General Ledger Accounting</t>
   </si>
   <si>
-    <t>2   </t>
+    <t>2</t>
   </si>
   <si>
     <t>Asset Capitalization Date</t>
@@ -540,7 +549,7 @@
     <t>The Field List Sheet</t>
   </si>
   <si>
-    <t>The 'Field List' sheet is one of the first sheets in the template. You use this sheet to get an overview of the expected data in one central location.  </t>
+    <t>The 'Field List' sheet is one of the first sheets in the template. You use this sheet to get an overview of the expected data in one central location.</t>
   </si>
   <si>
     <t>It contains information about the mandatory and optional fields, as well as detailed information for each field (for example the expected data type and length for the fields).</t>
@@ -552,7 +561,7 @@
     <t>For each template, you need to specify data for the mandatory fields (*)</t>
   </si>
   <si>
-    <t>Viewing Additional Information for Each Column  </t>
+    <t>Viewing Additional Information for Each Column</t>
   </si>
   <si>
     <t>In row 4, you can view the technical field names in SAP S/4HANA.</t>
@@ -567,7 +576,7 @@
     <t>Working with Different Data Types</t>
   </si>
   <si>
-    <t>You can view the data type for a field in row 8 (see 'Viewing Additional Information for Each Column' above). Depending on the field, one of the following data types may be required:  </t>
+    <t>You can view the data type for a field in row 8 (see 'Viewing Additional Information for Each Column' above). Depending on the field, one of the following data types may be required:</t>
   </si>
   <si>
     <t>Text</t>
@@ -627,7 +636,7 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>Any changes to the sheets will result in a corrupted XML structure. Such modified templates are not supported by the MPA file upload app.  </t>
+    <t>Any changes to the sheets will result in a corrupted XML structure. Such modified templates are not supported by the MPA file upload app.</t>
   </si>
   <si>
     <t>Template specific logics</t>
@@ -774,8 +783,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -802,11 +811,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -839,548 +843,795 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BM5"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" style="1" width="20" max="1" min="1" bestFit="1"/>
-    <col customWidth="1" style="1" width="17" max="2" min="2" bestFit="1"/>
-    <col customWidth="1" style="1" width="23" max="3" min="3" bestFit="1"/>
-    <col customWidth="1" style="1" width="20" max="4" min="4" bestFit="1"/>
-    <col customWidth="1" style="1" width="22" max="5" min="5" bestFit="1"/>
-    <col customWidth="1" style="1" width="33" max="6" min="6" bestFit="1"/>
-    <col customWidth="1" style="1" width="18" max="7" min="7" bestFit="1"/>
-    <col customWidth="1" style="1" width="21" max="8" min="8" bestFit="1"/>
-    <col customWidth="1" style="1" width="24" max="9" min="9" bestFit="1"/>
-    <col customWidth="1" style="1" width="32" max="10" min="10" bestFit="1"/>
-    <col customWidth="1" style="1" width="23" max="11" min="11" bestFit="1"/>
-    <col customWidth="1" style="1" width="43" max="12" min="12" bestFit="1"/>
-    <col customWidth="1" style="1" width="43" max="13" min="13" bestFit="1"/>
-    <col customWidth="1" style="1" width="16" max="14" min="14" bestFit="1"/>
-    <col customWidth="1" style="1" width="51" max="15" min="15" bestFit="1"/>
-    <col customWidth="1" style="1" width="18" max="16" min="16" bestFit="1"/>
-    <col customWidth="1" style="1" width="36" max="17" min="17" bestFit="1"/>
-    <col customWidth="1" style="1" width="9" max="18" min="18" bestFit="1"/>
-    <col customWidth="1" style="1" width="19" max="19" min="19" bestFit="1"/>
-    <col customWidth="1" style="1" width="8" max="20" min="20" bestFit="1"/>
-    <col customWidth="1" style="1" width="21" max="21" min="21" bestFit="1"/>
-    <col customWidth="1" style="1" width="48" max="22" min="22" bestFit="1"/>
-    <col customWidth="1" style="1" width="23" max="23" min="23" bestFit="1"/>
-    <col customWidth="1" style="1" width="26" max="24" min="24" bestFit="1"/>
-    <col customWidth="1" style="1" width="36" max="25" min="25" bestFit="1"/>
-    <col customWidth="1" style="1" width="20" max="26" min="26" bestFit="1"/>
-    <col customWidth="1" style="1" width="34" max="27" min="27" bestFit="1"/>
-    <col customWidth="1" style="1" width="33" max="28" min="28" bestFit="1"/>
-    <col customWidth="1" style="1" width="40" max="29" min="29" bestFit="1"/>
-    <col customWidth="1" style="1" width="39" max="30" min="30" bestFit="1"/>
-    <col customWidth="1" style="1" width="64" max="31" min="31" bestFit="1"/>
-    <col customWidth="1" style="1" width="39" max="32" min="32" bestFit="1"/>
-    <col customWidth="1" style="1" width="26" max="33" min="33" bestFit="1"/>
-    <col customWidth="1" style="1" width="39" max="34" min="34" bestFit="1"/>
-    <col customWidth="1" style="1" width="39" max="35" min="35" bestFit="1"/>
-    <col customWidth="1" style="1" width="38" max="36" min="36" bestFit="1"/>
-    <col customWidth="1" style="1" width="39" max="37" min="37" bestFit="1"/>
-    <col customWidth="1" style="1" width="38" max="38" min="38" bestFit="1"/>
-    <col customWidth="1" style="1" width="39" max="39" min="39" bestFit="1"/>
-    <col customWidth="1" style="1" width="38" max="40" min="40" bestFit="1"/>
-    <col customWidth="1" style="1" width="37" max="41" min="41" bestFit="1"/>
-    <col customWidth="1" style="1" width="20" max="42" min="42" bestFit="1"/>
-    <col customWidth="1" style="1" width="32" max="43" min="43" bestFit="1"/>
-    <col customWidth="1" style="1" width="34" max="44" min="44" bestFit="1"/>
-    <col customWidth="1" style="1" width="43" max="45" min="45" bestFit="1"/>
-    <col customWidth="1" style="1" width="37" max="46" min="46" bestFit="1"/>
-    <col customWidth="1" style="1" width="20" max="47" min="47" bestFit="1"/>
-    <col customWidth="1" style="1" width="32" max="48" min="48" bestFit="1"/>
-    <col customWidth="1" style="1" width="34" max="49" min="49" bestFit="1"/>
-    <col customWidth="1" style="1" width="43" max="50" min="50" bestFit="1"/>
-    <col customWidth="1" style="1" width="37" max="51" min="51" bestFit="1"/>
-    <col customWidth="1" style="1" width="20" max="52" min="52" bestFit="1"/>
-    <col customWidth="1" style="1" width="32" max="53" min="53" bestFit="1"/>
-    <col customWidth="1" style="1" width="34" max="54" min="54" bestFit="1"/>
-    <col customWidth="1" style="1" width="43" max="55" min="55" bestFit="1"/>
-    <col customWidth="1" style="1" width="37" max="56" min="56" bestFit="1"/>
-    <col customWidth="1" style="1" width="20" max="57" min="57" bestFit="1"/>
-    <col customWidth="1" style="1" width="32" max="58" min="58" bestFit="1"/>
-    <col customWidth="1" style="1" width="34" max="59" min="59" bestFit="1"/>
-    <col customWidth="1" style="1" width="43" max="60" min="60" bestFit="1"/>
-    <col customWidth="1" style="1" width="37" max="61" min="61" bestFit="1"/>
-    <col customWidth="1" style="1" width="20" max="62" min="62" bestFit="1"/>
-    <col customWidth="1" style="1" width="32" max="63" min="63" bestFit="1"/>
-    <col customWidth="1" style="1" width="34" max="64" min="64" bestFit="1"/>
-    <col customWidth="1" style="1" width="43" max="65" min="65" bestFit="1"/>
+    <col min="1" max="1" width="250" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1" customFormat="1" s="1">
-      <c r="A1" t="s" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
+    <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="R4" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="U4" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="V4" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="W4" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="X4" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="Y4" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="Z4" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="AA4" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="AB4" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="AC4" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="AD4" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AE4" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AF4" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="AG4" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="AH4" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="AI4" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="AJ4" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="AL4" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="AM4" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="AN4" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="AO4" t="s" s="3">
-        <v>79</v>
-      </c>
-      <c r="AP4" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="AQ4" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="AR4" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="AS4" t="s" s="3">
-        <v>87</v>
-      </c>
-      <c r="AT4" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="AU4" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="AV4" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="AW4" t="s" s="3">
-        <v>91</v>
-      </c>
-      <c r="AX4" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="AY4" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="AZ4" t="s" s="3">
-        <v>94</v>
-      </c>
-      <c r="BA4" t="s" s="3">
-        <v>95</v>
-      </c>
-      <c r="BB4" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="BC4" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="BD4" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="BE4" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="BF4" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="BG4" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="BH4" t="s" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI4" t="s" s="3">
-        <v>103</v>
-      </c>
-      <c r="BJ4" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="BK4" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="BL4" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="BM4" t="s" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="Q5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AN5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AO5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AS5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="AT5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AU5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AV5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AW5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AX5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="AY5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AZ5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="BA5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="BB5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="BC5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="BD5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="BE5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="BF5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="BG5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="BH5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="BI5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="BJ5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="BK5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="BL5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="BM5" t="s" s="2">
-        <v>28</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E67"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" style="1" width="25" max="1" min="1" bestFit="1"/>
-    <col customWidth="1" style="1" width="46" max="2" min="2" bestFit="1"/>
-    <col customWidth="1" style="1" width="19" max="3" min="3" bestFit="1"/>
-    <col customWidth="1" style="1" width="8" max="4" min="4" bestFit="1"/>
-    <col customWidth="1" style="1" width="7" max="5" min="5" bestFit="1"/>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1" customFormat="1" s="7">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1648,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1665,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1682,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1713,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1727,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1741,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1504,7 +1755,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1769,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1532,7 +1783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1546,7 +1797,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1560,7 +1811,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1574,7 +1825,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1588,7 +1839,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1602,7 +1853,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1867,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1630,7 +1881,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1644,7 +1895,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1658,7 +1909,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1686,7 +1937,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1700,7 +1951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1714,7 +1965,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1728,7 +1979,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1742,7 +1993,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1756,7 +2007,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1770,7 +2021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1784,7 +2035,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1798,7 +2049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1812,7 +2063,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1826,7 +2077,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1840,7 +2091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -1854,7 +2105,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1868,7 +2119,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1882,7 +2133,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -1896,7 +2147,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1910,7 +2161,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1924,7 +2175,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1938,7 +2189,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1952,7 +2203,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1966,7 +2217,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -1980,7 +2231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -1994,7 +2245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -2008,7 +2259,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -2022,7 +2273,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -2036,7 +2287,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -2050,7 +2301,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -2064,7 +2315,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -2078,7 +2329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -2092,7 +2343,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2106,7 +2357,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2120,7 +2371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -2134,7 +2385,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2148,7 +2399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -2162,7 +2413,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2176,7 +2427,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2190,7 +2441,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -2204,7 +2455,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -2218,7 +2469,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -2232,7 +2483,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2246,7 +2497,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>104</v>
       </c>
@@ -2260,7 +2511,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -2274,7 +2525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -2288,7 +2539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -2303,421 +2554,625 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A106"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BM5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" style="1" width="250" max="1" min="1" bestFit="1"/>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="64" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="43" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1" customFormat="1" s="7">
-      <c r="A1" t="s" s="5">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="6">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="6">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="6">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="6">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="6">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="6">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="6">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="6">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="6">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="6">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="6">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>251</v>
+    <row r="1" spans="1:65" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+    </row>
+    <row r="3" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="7"/>
+    </row>
+    <row r="4" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_6B6928A0CC5F9DB6EAAAB90702522D4A2D3041BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033C01EA-AA44-4E41-AAF6-968EB8C8A9E4}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_6B6928A0CC5F9DB6EAAAB90702522D4A2D3041BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC985465-2763-DF45-AD6E-7F1D4CD25188}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2564,7 +2564,7 @@
   <dimension ref="A1:BM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -5,24 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/upload_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_6B6928A0CC5F9DB6EAAAB90702522D4A2D3041BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC985465-2763-DF45-AD6E-7F1D4CD25188}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB82961E-1741-F948-BE3F-F1CECD3BD507}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
     <sheet name="Field List" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$5:$BM$11</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="280">
   <si>
     <t>Asset Mass Change</t>
   </si>
@@ -174,7 +177,7 @@
     <t>HERST</t>
   </si>
   <si>
-    <t>Manufacturer of asset (30)</t>
+    <t>Manufacturer of Asset (30)</t>
   </si>
   <si>
     <t>AM_LAND1</t>
@@ -210,7 +213,7 @@
     <t>AIBN2</t>
   </si>
   <si>
-    <t>Original asset that was transferred (4)</t>
+    <t>Original Asset That Was Transferred (4)</t>
   </si>
   <si>
     <t>AIBDT</t>
@@ -276,7 +279,7 @@
     <t>NDJAR_1</t>
   </si>
   <si>
-    <t>Planned useful life in years (3)</t>
+    <t>Planned Useful Life in Years (3)</t>
   </si>
   <si>
     <t>NDPER_1</t>
@@ -477,7 +480,7 @@
     <t>Asset Acquired Used</t>
   </si>
   <si>
-    <t>Manufacturer of asset</t>
+    <t>Manufacturer of Asset</t>
   </si>
   <si>
     <t>30</t>
@@ -504,9 +507,6 @@
     <t>Original Asset That Was Transferred</t>
   </si>
   <si>
-    <t>Original asset that was transferred</t>
-  </si>
-  <si>
     <t>Original Acquisition Date of AuC/ Transferred Asset</t>
   </si>
   <si>
@@ -534,7 +534,7 @@
     <t>Depreciation Key</t>
   </si>
   <si>
-    <t>Planned useful life in years</t>
+    <t>Planned Useful Life in Years</t>
   </si>
   <si>
     <t>Planned useful life in periods</t>
@@ -778,13 +778,100 @@
   </si>
   <si>
     <t>AuC Intangible (4010) - For this kind of assets, INVNR_ANLA (inventory number) can be filled but no other inventory information can be inserted. Information like HERST (Manufacturer), AM_LAND1 (country/reg. of origin), ANTEI (inhouse production percentage) and TYPBZ_ANLA (type name) can be changed.</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>SUL1</t>
+  </si>
+  <si>
+    <t>LINI</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>Change scenario 1</t>
+  </si>
+  <si>
+    <t>Change scenario 2</t>
+  </si>
+  <si>
+    <t>Change scenario 3</t>
+  </si>
+  <si>
+    <t>Change scenario 4</t>
+  </si>
+  <si>
+    <t>Change scenario 5</t>
+  </si>
+  <si>
+    <t>Change scenario 6</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 1</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 2</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 3</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 4</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 5</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 6</t>
+  </si>
+  <si>
+    <t>LTP111000000000000</t>
+  </si>
+  <si>
+    <t>LTP111000000000001</t>
+  </si>
+  <si>
+    <t>LTP111000000000002</t>
+  </si>
+  <si>
+    <t>LTP111000000000003</t>
+  </si>
+  <si>
+    <t>LTP111000000000004</t>
+  </si>
+  <si>
+    <t>LTP111000000000005</t>
+  </si>
+  <si>
+    <t>11101201</t>
+  </si>
+  <si>
+    <t>YB_1102</t>
+  </si>
+  <si>
+    <t>Y700</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>CHNG</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -811,6 +898,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -845,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -854,21 +951,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,409 +1287,412 @@
     <col min="1" max="1" width="250" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>172</v>
+    <row r="1" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -1614,7 +1711,7 @@
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
@@ -2054,7 +2151,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
         <v>118</v>
@@ -2068,7 +2165,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
         <v>133</v>
@@ -2082,7 +2179,7 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
         <v>115</v>
@@ -2102,7 +2199,7 @@
         <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2110,7 +2207,7 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
         <v>118</v>
@@ -2124,13 +2221,13 @@
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
         <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2138,7 +2235,7 @@
         <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
@@ -2152,13 +2249,13 @@
         <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D39" t="s">
         <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2166,7 +2263,7 @@
         <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
         <v>133</v>
@@ -2180,13 +2277,13 @@
         <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
         <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2194,7 +2291,7 @@
         <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
         <v>133</v>
@@ -2208,13 +2305,13 @@
         <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2222,7 +2319,7 @@
         <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>118</v>
@@ -2236,7 +2333,7 @@
         <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
         <v>115</v>
@@ -2250,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
         <v>115</v>
@@ -2278,13 +2375,13 @@
         <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2292,7 +2389,7 @@
         <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
         <v>118</v>
@@ -2306,7 +2403,7 @@
         <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>115</v>
@@ -2320,7 +2417,7 @@
         <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
         <v>115</v>
@@ -2348,13 +2445,13 @@
         <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
         <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2362,7 +2459,7 @@
         <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
         <v>118</v>
@@ -2376,7 +2473,7 @@
         <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -2390,7 +2487,7 @@
         <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
         <v>115</v>
@@ -2418,13 +2515,13 @@
         <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
         <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2432,7 +2529,7 @@
         <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" t="s">
         <v>118</v>
@@ -2446,7 +2543,7 @@
         <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
         <v>115</v>
@@ -2460,7 +2557,7 @@
         <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
         <v>115</v>
@@ -2488,13 +2585,13 @@
         <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D63" t="s">
         <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2502,7 +2599,7 @@
         <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
         <v>118</v>
@@ -2516,7 +2613,7 @@
         <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
         <v>115</v>
@@ -2530,7 +2627,7 @@
         <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
         <v>115</v>
@@ -2556,15 +2653,18 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BM5"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2575,7 +2675,7 @@
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
@@ -2634,150 +2734,22 @@
     <col min="65" max="65" width="43" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:65" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-    </row>
-    <row r="3" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="7"/>
-      <c r="BJ3" s="7"/>
-      <c r="BK3" s="7"/>
-      <c r="BL3" s="7"/>
-      <c r="BM3" s="7"/>
-    </row>
-    <row r="4" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2974,7 +2946,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3171,8 +3143,396 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB8" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB9" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB10" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="AB16" s="8"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A5:BM11" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/upload_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB82961E-1741-F948-BE3F-F1CECD3BD507}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8838C5-836C-894B-86A2-75EE1083EECE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -957,7 +957,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2661,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BM16"/>
+  <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3157,7 +3156,7 @@
       <c r="F6" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>267</v>
       </c>
       <c r="S6" s="7" t="s">
@@ -3166,7 +3165,7 @@
       <c r="Y6" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="AO6" s="9">
+      <c r="AO6" s="8">
         <v>1</v>
       </c>
       <c r="AP6" s="7" t="s">
@@ -3217,7 +3216,7 @@
       <c r="F7" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>268</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -3226,13 +3225,13 @@
       <c r="N7" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>275</v>
       </c>
       <c r="Z7" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AO7" s="9">
+      <c r="AO7" s="8">
         <v>1</v>
       </c>
       <c r="AP7" s="7" t="s">
@@ -3284,7 +3283,7 @@
       <c r="F8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>269</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -3293,13 +3292,13 @@
       <c r="N8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>275</v>
       </c>
       <c r="Y8" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="AO8" s="9">
+      <c r="AO8" s="8">
         <v>1</v>
       </c>
       <c r="AP8" s="7" t="s">
@@ -3350,7 +3349,7 @@
       <c r="F9" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>270</v>
       </c>
       <c r="S9" s="7" t="s">
@@ -3359,7 +3358,7 @@
       <c r="Z9" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AO9" s="9">
+      <c r="AO9" s="8">
         <v>1</v>
       </c>
       <c r="AP9" s="7" t="s">
@@ -3411,7 +3410,7 @@
       <c r="F10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>271</v>
       </c>
       <c r="I10" s="7" t="s">
@@ -3420,13 +3419,13 @@
       <c r="N10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="9" t="s">
         <v>275</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="AO10" s="9">
+      <c r="AO10" s="8">
         <v>1</v>
       </c>
       <c r="AP10" s="7" t="s">
@@ -3477,7 +3476,7 @@
       <c r="F11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>272</v>
       </c>
       <c r="S11" s="7" t="s">
@@ -3486,7 +3485,7 @@
       <c r="Z11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AO11" s="9">
+      <c r="AO11" s="8">
         <v>1</v>
       </c>
       <c r="AP11" s="7" t="s">
@@ -3522,9 +3521,6 @@
       <c r="BB11" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AB16" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:BM11" xr:uid="{00000000-0001-0000-0200-000000000000}"/>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8838C5-836C-894B-86A2-75EE1083EECE}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28DE44B7-A61B-CF47-A5C1-8EFFA4B4C77E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="281">
   <si>
     <t>Asset Mass Change</t>
   </si>
@@ -783,15 +783,9 @@
     <t>KG</t>
   </si>
   <si>
-    <t>SUL1</t>
-  </si>
-  <si>
     <t>LINI</t>
   </si>
   <si>
-    <t>1110</t>
-  </si>
-  <si>
     <t>Change scenario 1</t>
   </si>
   <si>
@@ -846,12 +840,6 @@
     <t>LTP111000000000005</t>
   </si>
   <si>
-    <t>11101201</t>
-  </si>
-  <si>
-    <t>YB_1102</t>
-  </si>
-  <si>
     <t>Y700</t>
   </si>
   <si>
@@ -861,10 +849,25 @@
     <t>CHNG</t>
   </si>
   <si>
-    <t>LINK</t>
-  </si>
-  <si>
     <t>32</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>17101201</t>
+  </si>
+  <si>
+    <t>YB_1702</t>
+  </si>
+  <si>
+    <t>LINS</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>SUL2</t>
   </si>
 </sst>
 </file>
@@ -2662,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AZ6" sqref="AZ6:AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3147,23 +3150,23 @@
         <v>136</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AO6" s="8">
         <v>1</v>
@@ -3178,7 +3181,7 @@
         <v>165</v>
       </c>
       <c r="AT6" s="7" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="AU6" s="7" t="s">
         <v>252</v>
@@ -3193,7 +3196,7 @@
         <v>279</v>
       </c>
       <c r="AZ6" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BA6" s="7" t="s">
         <v>116</v>
@@ -3207,29 +3210,29 @@
         <v>165</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>251</v>
       </c>
       <c r="N7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z7" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="AO7" s="8">
         <v>1</v>
@@ -3244,7 +3247,7 @@
         <v>165</v>
       </c>
       <c r="AT7" s="7" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="AU7" s="7" t="s">
         <v>252</v>
@@ -3259,7 +3262,7 @@
         <v>279</v>
       </c>
       <c r="AZ7" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BA7" s="7" t="s">
         <v>116</v>
@@ -3273,30 +3276,30 @@
         <v>131</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>251</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AO8" s="8">
         <v>1</v>
@@ -3311,7 +3314,7 @@
         <v>165</v>
       </c>
       <c r="AT8" s="7" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="AU8" s="7" t="s">
         <v>252</v>
@@ -3326,7 +3329,7 @@
         <v>279</v>
       </c>
       <c r="AZ8" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BA8" s="7" t="s">
         <v>116</v>
@@ -3340,23 +3343,23 @@
         <v>119</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AO9" s="8">
         <v>1</v>
@@ -3371,7 +3374,7 @@
         <v>165</v>
       </c>
       <c r="AT9" s="7" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="AU9" s="7" t="s">
         <v>252</v>
@@ -3386,7 +3389,7 @@
         <v>279</v>
       </c>
       <c r="AZ9" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BA9" s="7" t="s">
         <v>116</v>
@@ -3400,30 +3403,30 @@
         <v>156</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>251</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AO10" s="8">
         <v>1</v>
@@ -3438,7 +3441,7 @@
         <v>165</v>
       </c>
       <c r="AT10" s="7" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="AU10" s="7" t="s">
         <v>252</v>
@@ -3453,7 +3456,7 @@
         <v>279</v>
       </c>
       <c r="AZ10" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BA10" s="7" t="s">
         <v>116</v>
@@ -3467,23 +3470,23 @@
         <v>158</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AO11" s="8">
         <v>1</v>
@@ -3498,7 +3501,7 @@
         <v>165</v>
       </c>
       <c r="AT11" s="7" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="AU11" s="7" t="s">
         <v>252</v>
@@ -3513,7 +3516,7 @@
         <v>279</v>
       </c>
       <c r="AZ11" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="BA11" s="7" t="s">
         <v>116</v>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28DE44B7-A61B-CF47-A5C1-8EFFA4B4C77E}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A2DAD54-AB95-FC4F-B340-B0EC6F478540}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>AIBN2</t>
   </si>
   <si>
-    <t>Original Asset That Was Transferred (4)</t>
-  </si>
-  <si>
     <t>AIBDT</t>
   </si>
   <si>
@@ -868,6 +865,9 @@
   </si>
   <si>
     <t>SUL2</t>
+  </si>
+  <si>
+    <t>Original asset that was transferred (4)</t>
   </si>
 </sst>
 </file>
@@ -1291,402 +1291,402 @@
   <sheetData>
     <row r="1" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1715,19 +1715,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1735,16 +1735,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>115</v>
-      </c>
-      <c r="E3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1752,16 +1752,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>118</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1769,16 +1769,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
         <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1786,16 +1786,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
         <v>118</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1803,13 +1803,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
         <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1817,13 +1817,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,13 +1831,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
         <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1845,13 +1845,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
         <v>128</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1859,13 +1859,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
         <v>130</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1873,13 +1873,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
         <v>132</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,13 +1887,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
         <v>135</v>
-      </c>
-      <c r="D13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1901,13 +1901,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
         <v>137</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1915,13 +1915,13 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
         <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1929,13 +1929,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1943,13 +1943,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
         <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1957,13 +1957,13 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1971,13 +1971,13 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1985,13 +1985,13 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
         <v>118</v>
-      </c>
-      <c r="E20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1999,13 +1999,13 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2013,13 +2013,13 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2027,13 +2027,13 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2041,13 +2041,13 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2055,13 +2055,13 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2069,13 +2069,13 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" t="s">
         <v>151</v>
-      </c>
-      <c r="D26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2083,13 +2083,13 @@
         <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2097,13 +2097,13 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2111,13 +2111,13 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
         <v>155</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2125,13 +2125,13 @@
         <v>57</v>
       </c>
       <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
         <v>157</v>
-      </c>
-      <c r="D30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2139,13 +2139,13 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,503 +2153,503 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
         <v>118</v>
-      </c>
-      <c r="E32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
         <v>133</v>
-      </c>
-      <c r="E33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
         <v>164</v>
-      </c>
-      <c r="D37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
         <v>133</v>
-      </c>
-      <c r="E38" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
         <v>164</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
         <v>133</v>
-      </c>
-      <c r="E40" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
         <v>164</v>
-      </c>
-      <c r="D41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
         <v>133</v>
-      </c>
-      <c r="E42" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" t="s">
         <v>118</v>
-      </c>
-      <c r="E44" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
         <v>133</v>
-      </c>
-      <c r="E47" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
         <v>118</v>
-      </c>
-      <c r="E49" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
         <v>133</v>
-      </c>
-      <c r="E52" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" t="s">
         <v>118</v>
-      </c>
-      <c r="E54" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
         <v>133</v>
-      </c>
-      <c r="E57" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" t="s">
         <v>118</v>
-      </c>
-      <c r="E59" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="s">
         <v>133</v>
-      </c>
-      <c r="E62" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" t="s">
         <v>118</v>
-      </c>
-      <c r="E64" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" t="s">
         <v>133</v>
-      </c>
-      <c r="E67" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2665,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AZ6" sqref="AZ6:AZ11"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2843,109 +2843,109 @@
         <v>61</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="AP4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AS4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BD4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BF4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BG4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BH4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BI4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BJ4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BK4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BL4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BM4" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="BM4" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
@@ -3037,109 +3037,109 @@
         <v>60</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BC5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BH5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BL5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BM5" s="2" t="s">
         <v>28</v>
@@ -3147,382 +3147,382 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AO6" s="8">
         <v>1</v>
       </c>
       <c r="AP6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY6" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AQ6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR6" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT6" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU6" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY6" s="7" t="s">
+      <c r="AZ6" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AZ6" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="BA6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BB6" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AO7" s="8">
         <v>1</v>
       </c>
       <c r="AP7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY7" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AQ7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT7" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AW7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY7" s="7" t="s">
+      <c r="AZ7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AZ7" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="BA7" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BB7" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P8" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y8" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="AO8" s="8">
         <v>1</v>
       </c>
       <c r="AP8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY8" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AQ8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR8" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT8" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AW8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY8" s="7" t="s">
+      <c r="AZ8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AZ8" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="BA8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BB8" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AO9" s="8">
         <v>1</v>
       </c>
       <c r="AP9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY9" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AQ9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT9" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU9" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AW9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY9" s="7" t="s">
+      <c r="AZ9" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AZ9" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="BA9" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BB9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P10" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="AO10" s="8">
         <v>1</v>
       </c>
       <c r="AP10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY10" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AQ10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AW10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY10" s="7" t="s">
+      <c r="AZ10" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AZ10" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="BA10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BB10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AO11" s="8">
         <v>1</v>
       </c>
       <c r="AP11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AQ11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AW11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY11" s="7" t="s">
+      <c r="AZ11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AZ11" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="BA11" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BB11" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A2DAD54-AB95-FC4F-B340-B0EC6F478540}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14C87816-8F64-9249-BD0B-CB925C440FE4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$5:$BM$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -177,9 +189,6 @@
     <t>HERST</t>
   </si>
   <si>
-    <t>Manufacturer of Asset (30)</t>
-  </si>
-  <si>
     <t>AM_LAND1</t>
   </si>
   <si>
@@ -276,9 +285,6 @@
     <t>NDJAR_1</t>
   </si>
   <si>
-    <t>Planned Useful Life in Years (3)</t>
-  </si>
-  <si>
     <t>NDPER_1</t>
   </si>
   <si>
@@ -868,6 +874,12 @@
   </si>
   <si>
     <t>Original asset that was transferred (4)</t>
+  </si>
+  <si>
+    <t>Manufacturer of asset (30)</t>
+  </si>
+  <si>
+    <t>Planned useful life in years (3)</t>
   </si>
 </sst>
 </file>
@@ -1291,402 +1303,402 @@
   <sheetData>
     <row r="1" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1715,19 +1727,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1735,16 +1747,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1752,16 +1764,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1769,16 +1781,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1786,16 +1798,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1803,13 +1815,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1817,13 +1829,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,13 +1843,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1845,13 +1857,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1859,13 +1871,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1873,13 +1885,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
         <v>131</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,13 +1899,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1901,13 +1913,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1915,13 +1927,13 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1929,13 +1941,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1943,13 +1955,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1957,13 +1969,13 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1971,13 +1983,13 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1985,13 +1997,13 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1999,13 +2011,13 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2013,13 +2025,13 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2027,13 +2039,13 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2041,13 +2053,13 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2055,13 +2067,13 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2069,587 +2081,587 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2665,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2825,127 +2837,127 @@
         <v>49</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AF4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="AP4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BD4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BF4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BG4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BH4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BI4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BJ4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BK4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BL4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BM4" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="BL4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM4" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
@@ -3019,127 +3031,127 @@
         <v>48</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
+      <c r="AR5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AW5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="BC5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BF5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BG5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="BG5" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="BH5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BK5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BL5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="BL5" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="BM5" s="2" t="s">
         <v>28</v>
@@ -3147,382 +3159,382 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AO6" s="8">
         <v>1</v>
       </c>
       <c r="AP6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AQ6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR6" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT6" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU6" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY6" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AZ6" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="BA6" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BB6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P7" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z7" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="AO7" s="8">
         <v>1</v>
       </c>
       <c r="AP7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AQ7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT7" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY7" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AZ7" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="BA7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BB7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AO8" s="8">
         <v>1</v>
       </c>
       <c r="AP8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AQ8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR8" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT8" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY8" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AZ8" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="BA8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BB8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AO9" s="8">
         <v>1</v>
       </c>
       <c r="AP9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AQ9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY9" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AZ9" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="BA9" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BB9" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>270</v>
-      </c>
       <c r="Y10" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AO10" s="8">
         <v>1</v>
       </c>
       <c r="AP10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AQ10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AZ10" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="BA10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BB10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AO11" s="8">
         <v>1</v>
       </c>
       <c r="AP11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AQ11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AZ11" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="BA11" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BB11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i503773/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{012E13BA-C53B-FF44-A5D3-75A7FC36945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14C87816-8F64-9249-BD0B-CB925C440FE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA779DF-E2E6-AF47-A7E9-D67DBE171D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="280">
   <si>
     <t>Asset Mass Change</t>
   </si>
@@ -781,9 +781,6 @@
   </si>
   <si>
     <t>AuC Intangible (4010) - For this kind of assets, INVNR_ANLA (inventory number) can be filled but no other inventory information can be inserted. Information like HERST (Manufacturer), AM_LAND1 (country/reg. of origin), ANTEI (inhouse production percentage) and TYPBZ_ANLA (type name) can be changed.</t>
-  </si>
-  <si>
-    <t>KG</t>
   </si>
   <si>
     <t>LINI</t>
@@ -2678,7 +2675,7 @@
   <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="I7" sqref="I7:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3031,7 +3028,7 @@
         <v>48</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>51</v>
@@ -3049,7 +3046,7 @@
         <v>59</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>62</v>
@@ -3088,7 +3085,7 @@
         <v>80</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AR5" s="2" t="s">
         <v>83</v>
@@ -3103,7 +3100,7 @@
         <v>80</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AW5" s="2" t="s">
         <v>83</v>
@@ -3118,7 +3115,7 @@
         <v>80</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BB5" s="2" t="s">
         <v>83</v>
@@ -3133,7 +3130,7 @@
         <v>80</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BG5" s="2" t="s">
         <v>83</v>
@@ -3148,7 +3145,7 @@
         <v>80</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BL5" s="2" t="s">
         <v>83</v>
@@ -3162,29 +3159,29 @@
         <v>133</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AO6" s="8">
         <v>1</v>
       </c>
       <c r="AP6" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ6" s="7" t="s">
         <v>116</v>
@@ -3193,10 +3190,10 @@
         <v>162</v>
       </c>
       <c r="AT6" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU6" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AV6" s="7" t="s">
         <v>131</v>
@@ -3205,10 +3202,10 @@
         <v>116</v>
       </c>
       <c r="AY6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="AZ6" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="BA6" s="7" t="s">
         <v>113</v>
@@ -3222,35 +3219,33 @@
         <v>162</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>248</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="N7" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO7" s="8">
         <v>1</v>
       </c>
       <c r="AP7" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ7" s="7" t="s">
         <v>116</v>
@@ -3259,10 +3254,10 @@
         <v>162</v>
       </c>
       <c r="AT7" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU7" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AV7" s="7" t="s">
         <v>131</v>
@@ -3271,10 +3266,10 @@
         <v>116</v>
       </c>
       <c r="AY7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="AZ7" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="BA7" s="7" t="s">
         <v>113</v>
@@ -3288,36 +3283,34 @@
         <v>128</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>248</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="N8" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P8" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="AO8" s="8">
         <v>1</v>
       </c>
       <c r="AP8" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ8" s="7" t="s">
         <v>116</v>
@@ -3326,10 +3319,10 @@
         <v>162</v>
       </c>
       <c r="AT8" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU8" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AV8" s="7" t="s">
         <v>131</v>
@@ -3338,10 +3331,10 @@
         <v>116</v>
       </c>
       <c r="AY8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="AZ8" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="BA8" s="7" t="s">
         <v>113</v>
@@ -3355,29 +3348,29 @@
         <v>116</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO9" s="8">
         <v>1</v>
       </c>
       <c r="AP9" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ9" s="7" t="s">
         <v>116</v>
@@ -3386,10 +3379,10 @@
         <v>162</v>
       </c>
       <c r="AT9" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU9" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AV9" s="7" t="s">
         <v>131</v>
@@ -3398,10 +3391,10 @@
         <v>116</v>
       </c>
       <c r="AY9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="AZ9" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="BA9" s="7" t="s">
         <v>113</v>
@@ -3415,36 +3408,34 @@
         <v>153</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>248</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="N10" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P10" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="AO10" s="8">
         <v>1</v>
       </c>
       <c r="AP10" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ10" s="7" t="s">
         <v>116</v>
@@ -3453,10 +3444,10 @@
         <v>162</v>
       </c>
       <c r="AT10" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AV10" s="7" t="s">
         <v>131</v>
@@ -3465,10 +3456,10 @@
         <v>116</v>
       </c>
       <c r="AY10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="AZ10" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="BA10" s="7" t="s">
         <v>113</v>
@@ -3482,29 +3473,29 @@
         <v>155</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO11" s="8">
         <v>1</v>
       </c>
       <c r="AP11" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AQ11" s="7" t="s">
         <v>116</v>
@@ -3513,10 +3504,10 @@
         <v>162</v>
       </c>
       <c r="AT11" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AU11" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AV11" s="7" t="s">
         <v>131</v>
@@ -3525,10 +3516,10 @@
         <v>116</v>
       </c>
       <c r="AY11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="AZ11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="BA11" s="7" t="s">
         <v>113</v>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i503773/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA779DF-E2E6-AF47-A7E9-D67DBE171D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7EA779DF-E2E6-AF47-A7E9-D67DBE171D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF20DDD5-3072-5449-9E7C-19C59EDCFA19}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,9 +867,6 @@
     <t>34</t>
   </si>
   <si>
-    <t>SUL2</t>
-  </si>
-  <si>
     <t>Original asset that was transferred (4)</t>
   </si>
   <si>
@@ -877,6 +874,9 @@
   </si>
   <si>
     <t>Planned useful life in years (3)</t>
+  </si>
+  <si>
+    <t>MANU</t>
   </si>
 </sst>
 </file>
@@ -2674,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I10"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AZ6" sqref="AZ6:AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3028,7 +3028,7 @@
         <v>48</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>51</v>
@@ -3046,7 +3046,7 @@
         <v>59</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>62</v>
@@ -3085,7 +3085,7 @@
         <v>80</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR5" s="2" t="s">
         <v>83</v>
@@ -3100,7 +3100,7 @@
         <v>80</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AW5" s="2" t="s">
         <v>83</v>
@@ -3115,7 +3115,7 @@
         <v>80</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BB5" s="2" t="s">
         <v>83</v>
@@ -3130,7 +3130,7 @@
         <v>80</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BG5" s="2" t="s">
         <v>83</v>
@@ -3145,7 +3145,7 @@
         <v>80</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BL5" s="2" t="s">
         <v>83</v>
@@ -3205,7 +3205,7 @@
         <v>275</v>
       </c>
       <c r="AZ6" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BA6" s="7" t="s">
         <v>113</v>
@@ -3269,7 +3269,7 @@
         <v>275</v>
       </c>
       <c r="AZ7" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BA7" s="7" t="s">
         <v>113</v>
@@ -3334,7 +3334,7 @@
         <v>275</v>
       </c>
       <c r="AZ8" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BA8" s="7" t="s">
         <v>113</v>
@@ -3394,7 +3394,7 @@
         <v>275</v>
       </c>
       <c r="AZ9" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BA9" s="7" t="s">
         <v>113</v>
@@ -3459,7 +3459,7 @@
         <v>275</v>
       </c>
       <c r="AZ10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BA10" s="7" t="s">
         <v>113</v>
@@ -3519,7 +3519,7 @@
         <v>275</v>
       </c>
       <c r="AZ11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BA11" s="7" t="s">
         <v>113</v>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7EA779DF-E2E6-AF47-A7E9-D67DBE171D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF20DDD5-3072-5449-9E7C-19C59EDCFA19}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7EA779DF-E2E6-AF47-A7E9-D67DBE171D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82644543-7544-4548-BC1D-804759B2F464}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,9 +840,6 @@
     <t>LTP111000000000005</t>
   </si>
   <si>
-    <t>Y700</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
@@ -855,9 +852,6 @@
     <t>1710</t>
   </si>
   <si>
-    <t>17101201</t>
-  </si>
-  <si>
     <t>YB_1702</t>
   </si>
   <si>
@@ -877,6 +871,12 @@
   </si>
   <si>
     <t>MANU</t>
+  </si>
+  <si>
+    <t>YB103</t>
+  </si>
+  <si>
+    <t>17101904</t>
   </si>
 </sst>
 </file>
@@ -2674,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AZ6" sqref="AZ6:AZ11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3028,7 +3028,7 @@
         <v>48</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>51</v>
@@ -3046,7 +3046,7 @@
         <v>59</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>62</v>
@@ -3085,7 +3085,7 @@
         <v>80</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AR5" s="2" t="s">
         <v>83</v>
@@ -3100,7 +3100,7 @@
         <v>80</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AW5" s="2" t="s">
         <v>83</v>
@@ -3115,7 +3115,7 @@
         <v>80</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BB5" s="2" t="s">
         <v>83</v>
@@ -3130,7 +3130,7 @@
         <v>80</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BG5" s="2" t="s">
         <v>83</v>
@@ -3145,7 +3145,7 @@
         <v>80</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BL5" s="2" t="s">
         <v>83</v>
@@ -3159,7 +3159,7 @@
         <v>133</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" s="7"/>
       <c r="E6" s="7" t="s">
@@ -3172,16 +3172,16 @@
         <v>261</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AO6" s="8">
         <v>1</v>
       </c>
       <c r="AP6" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AQ6" s="7" t="s">
         <v>116</v>
@@ -3190,7 +3190,7 @@
         <v>162</v>
       </c>
       <c r="AT6" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU6" s="7" t="s">
         <v>248</v>
@@ -3202,10 +3202,10 @@
         <v>116</v>
       </c>
       <c r="AY6" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AZ6" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BA6" s="7" t="s">
         <v>113</v>
@@ -3219,7 +3219,7 @@
         <v>162</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" s="7" t="s">
@@ -3233,19 +3233,19 @@
       </c>
       <c r="I7" s="7"/>
       <c r="N7" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AO7" s="8">
         <v>1</v>
       </c>
       <c r="AP7" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AQ7" s="7" t="s">
         <v>116</v>
@@ -3254,7 +3254,7 @@
         <v>162</v>
       </c>
       <c r="AT7" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU7" s="7" t="s">
         <v>248</v>
@@ -3266,10 +3266,10 @@
         <v>116</v>
       </c>
       <c r="AY7" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AZ7" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BA7" s="7" t="s">
         <v>113</v>
@@ -3283,7 +3283,7 @@
         <v>128</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3298,19 +3298,19 @@
       </c>
       <c r="I8" s="7"/>
       <c r="N8" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P8" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="AO8" s="8">
         <v>1</v>
       </c>
       <c r="AP8" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AQ8" s="7" t="s">
         <v>116</v>
@@ -3319,7 +3319,7 @@
         <v>162</v>
       </c>
       <c r="AT8" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU8" s="7" t="s">
         <v>248</v>
@@ -3331,10 +3331,10 @@
         <v>116</v>
       </c>
       <c r="AY8" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AZ8" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BA8" s="7" t="s">
         <v>113</v>
@@ -3348,7 +3348,7 @@
         <v>116</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -3361,16 +3361,16 @@
         <v>264</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AO9" s="8">
         <v>1</v>
       </c>
       <c r="AP9" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AQ9" s="7" t="s">
         <v>116</v>
@@ -3379,7 +3379,7 @@
         <v>162</v>
       </c>
       <c r="AT9" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU9" s="7" t="s">
         <v>248</v>
@@ -3391,10 +3391,10 @@
         <v>116</v>
       </c>
       <c r="AY9" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AZ9" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BA9" s="7" t="s">
         <v>113</v>
@@ -3408,7 +3408,7 @@
         <v>153</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3423,19 +3423,19 @@
       </c>
       <c r="I10" s="7"/>
       <c r="N10" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P10" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="AO10" s="8">
         <v>1</v>
       </c>
       <c r="AP10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AQ10" s="7" t="s">
         <v>116</v>
@@ -3444,7 +3444,7 @@
         <v>162</v>
       </c>
       <c r="AT10" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU10" s="7" t="s">
         <v>248</v>
@@ -3456,10 +3456,10 @@
         <v>116</v>
       </c>
       <c r="AY10" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AZ10" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BA10" s="7" t="s">
         <v>113</v>
@@ -3473,7 +3473,7 @@
         <v>155</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="7"/>
       <c r="E11" s="7" t="s">
@@ -3486,16 +3486,16 @@
         <v>266</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AO11" s="8">
         <v>1</v>
       </c>
       <c r="AP11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AQ11" s="7" t="s">
         <v>116</v>
@@ -3504,7 +3504,7 @@
         <v>162</v>
       </c>
       <c r="AT11" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AU11" s="7" t="s">
         <v>248</v>
@@ -3516,10 +3516,10 @@
         <v>116</v>
       </c>
       <c r="AY11" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AZ11" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BA11" s="7" t="s">
         <v>113</v>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -5,39 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/python_scripts/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/new_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7EA779DF-E2E6-AF47-A7E9-D67DBE171D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82644543-7544-4548-BC1D-804759B2F464}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_64198BB546675CC194AA0176F4D421490D6A2630" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C851BC6-C8FB-ED46-918B-424769524752}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10160" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
     <sheet name="Field List" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$5:$BM$11</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="282">
   <si>
     <t>Asset Mass Change</t>
   </si>
@@ -105,439 +90,454 @@
     <t>IVDAT_ANLA</t>
   </si>
   <si>
+    <t>Last Inventory Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>INKEN</t>
+  </si>
+  <si>
+    <t>Inventory Indicator (1)</t>
+  </si>
+  <si>
+    <t>INVZU_ANLA</t>
+  </si>
+  <si>
+    <t>Supplementary Inventory Specifications (15)</t>
+  </si>
+  <si>
+    <t>ADATU</t>
+  </si>
+  <si>
+    <t>Date for Beginning of Validity (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>KOSTL</t>
+  </si>
+  <si>
+    <t>Cost Center (10)</t>
+  </si>
+  <si>
+    <t>FAA_MD_WBSELEMENT</t>
+  </si>
+  <si>
+    <t>Work Breakdown Structure Element (WBS Element) (24)</t>
+  </si>
+  <si>
+    <t>PRCTR</t>
+  </si>
+  <si>
+    <t>Profit Center (10)</t>
+  </si>
+  <si>
+    <t>FB_SEGMENT</t>
+  </si>
+  <si>
+    <t>Segment for Segmental Reporting (10)</t>
+  </si>
+  <si>
+    <t>WERKS_D</t>
+  </si>
+  <si>
+    <t>Plant (4)</t>
+  </si>
+  <si>
+    <t>STORT</t>
+  </si>
+  <si>
+    <t>Asset location (10)</t>
+  </si>
+  <si>
+    <t>RAUMNR</t>
+  </si>
+  <si>
+    <t>Room (8)</t>
+  </si>
+  <si>
+    <t>TXJCD</t>
+  </si>
+  <si>
+    <t>Tax Jurisdiction (15)</t>
+  </si>
+  <si>
+    <t>AM_LIFNR</t>
+  </si>
+  <si>
+    <t>Account Number of Supplier (Other Key Word) (10)</t>
+  </si>
+  <si>
+    <t>XAFABCH</t>
+  </si>
+  <si>
+    <t>Asset Acquired Used (1)</t>
+  </si>
+  <si>
+    <t>HERST</t>
+  </si>
+  <si>
+    <t>Manufacturer of asset (30)</t>
+  </si>
+  <si>
+    <t>AM_LAND1</t>
+  </si>
+  <si>
+    <t>Asset's Country/Region of Origin (3)</t>
+  </si>
+  <si>
+    <t>TYPBZ_ANLA</t>
+  </si>
+  <si>
+    <t>Asset type name (15)</t>
+  </si>
+  <si>
+    <t>ANTEI</t>
+  </si>
+  <si>
+    <t>In-House Production Percentage (5)</t>
+  </si>
+  <si>
+    <t>RASSC</t>
+  </si>
+  <si>
+    <t>Company ID of Trading Partner (6)</t>
+  </si>
+  <si>
+    <t>AIBN1</t>
+  </si>
+  <si>
+    <t>Original Asset That Was Transferred (12)</t>
+  </si>
+  <si>
+    <t>AIBN2</t>
+  </si>
+  <si>
+    <t>Original asset that was transferred (4)</t>
+  </si>
+  <si>
+    <t>AIBDT</t>
+  </si>
+  <si>
+    <t>Original Acquisition Date of AuC/ Transferred Asset (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>URJHR</t>
+  </si>
+  <si>
+    <t>Fiscal Year of Original Acquisition (4)</t>
+  </si>
+  <si>
+    <t>URWRT</t>
+  </si>
+  <si>
+    <t>Original Acquisition Value (23)</t>
+  </si>
+  <si>
+    <t>FAA_MD_ORG_ACQ_CURR</t>
+  </si>
+  <si>
+    <t>Original Acquisition Value Currency (5)</t>
+  </si>
+  <si>
+    <t>FINS_LEDGER_1</t>
+  </si>
+  <si>
+    <t>Ledger in General Ledger Accounting (2)</t>
+  </si>
+  <si>
+    <t>AKTIVD_1</t>
+  </si>
+  <si>
+    <t>Asset Capitalization Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>FINS_LEDGER_2</t>
+  </si>
+  <si>
+    <t>AKTIVD_2</t>
+  </si>
+  <si>
+    <t>FINS_LEDGER_3</t>
+  </si>
+  <si>
+    <t>AKTIVD_3</t>
+  </si>
+  <si>
+    <t>AFABER_1</t>
+  </si>
+  <si>
+    <t>Depreciation Area Real or Derived (2)</t>
+  </si>
+  <si>
+    <t>AFASL_1</t>
+  </si>
+  <si>
+    <t>Depreciation Key (4)</t>
+  </si>
+  <si>
+    <t>NDJAR_1</t>
+  </si>
+  <si>
+    <t>Planned useful life in years (3)</t>
+  </si>
+  <si>
+    <t>NDPER_1</t>
+  </si>
+  <si>
+    <t>Planned useful life in periods (3)</t>
+  </si>
+  <si>
+    <t>ADATU_1</t>
+  </si>
+  <si>
+    <t>AFABER_2</t>
+  </si>
+  <si>
+    <t>AFASL_2</t>
+  </si>
+  <si>
+    <t>NDJAR_2</t>
+  </si>
+  <si>
+    <t>NDPER_2</t>
+  </si>
+  <si>
+    <t>ADATU_2</t>
+  </si>
+  <si>
+    <t>AFABER_3</t>
+  </si>
+  <si>
+    <t>AFASL_3</t>
+  </si>
+  <si>
+    <t>NDJAR_3</t>
+  </si>
+  <si>
+    <t>NDPER_3</t>
+  </si>
+  <si>
+    <t>ADATU_3</t>
+  </si>
+  <si>
+    <t>AFABER_4</t>
+  </si>
+  <si>
+    <t>AFASL_4</t>
+  </si>
+  <si>
+    <t>NDJAR_4</t>
+  </si>
+  <si>
+    <t>NDPER_4</t>
+  </si>
+  <si>
+    <t>ADATU_4</t>
+  </si>
+  <si>
+    <t>AFABER_5</t>
+  </si>
+  <si>
+    <t>AFASL_5</t>
+  </si>
+  <si>
+    <t>NDJAR_5</t>
+  </si>
+  <si>
+    <t>NDPER_5</t>
+  </si>
+  <si>
+    <t>ADATU_5</t>
+  </si>
+  <si>
+    <t>FIELD NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>IMPORTANCE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>Row Number</t>
+  </si>
+  <si>
+    <t>Mandatory for sheet</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Main Asset Number</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Asset Subnumber</t>
+  </si>
+  <si>
+    <t>Asset Description</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Additional asset description</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Inventory Number</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Base Unit of Measure</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Last Inventory Date (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>INKEN</t>
-  </si>
-  <si>
-    <t>Inventory Indicator (1)</t>
-  </si>
-  <si>
-    <t>INVZU_ANLA</t>
-  </si>
-  <si>
-    <t>Supplementary Inventory Specifications (15)</t>
-  </si>
-  <si>
-    <t>ADATU</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Inventory Indicator</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Supplementary Inventory Specifications</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Date for Beginning of Validity (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>KOSTL</t>
-  </si>
-  <si>
-    <t>Cost Center (10)</t>
-  </si>
-  <si>
-    <t>FAA_MD_WBSELEMENT</t>
-  </si>
-  <si>
-    <t>Work Breakdown Structure Element (WBS Element) (24)</t>
-  </si>
-  <si>
-    <t>PRCTR</t>
-  </si>
-  <si>
-    <t>Profit Center (10)</t>
-  </si>
-  <si>
-    <t>FB_SEGMENT</t>
-  </si>
-  <si>
-    <t>Segment for Segmental Reporting (10)</t>
-  </si>
-  <si>
-    <t>WERKS_D</t>
-  </si>
-  <si>
-    <t>Plant (4)</t>
-  </si>
-  <si>
-    <t>STORT</t>
-  </si>
-  <si>
-    <t>Asset location (10)</t>
-  </si>
-  <si>
-    <t>RAUMNR</t>
-  </si>
-  <si>
-    <t>Room (8)</t>
-  </si>
-  <si>
-    <t>TXJCD</t>
-  </si>
-  <si>
-    <t>Tax Jurisdiction (15)</t>
-  </si>
-  <si>
-    <t>AM_LIFNR</t>
-  </si>
-  <si>
-    <t>Account Number of Supplier (Other Key Word) (10)</t>
-  </si>
-  <si>
-    <t>XAFABCH</t>
-  </si>
-  <si>
-    <t>Asset Acquired Used (1)</t>
-  </si>
-  <si>
-    <t>HERST</t>
-  </si>
-  <si>
-    <t>AM_LAND1</t>
-  </si>
-  <si>
-    <t>Asset's Country/Region of Origin (3)</t>
-  </si>
-  <si>
-    <t>TYPBZ_ANLA</t>
-  </si>
-  <si>
-    <t>Asset type name (15)</t>
-  </si>
-  <si>
-    <t>ANTEI</t>
-  </si>
-  <si>
-    <t>In-House Production Percentage (5)</t>
-  </si>
-  <si>
-    <t>RASSC</t>
-  </si>
-  <si>
-    <t>Company ID of Trading Partner (6)</t>
-  </si>
-  <si>
-    <t>AIBN1</t>
-  </si>
-  <si>
-    <t>Original Asset That Was Transferred (12)</t>
-  </si>
-  <si>
-    <t>AIBN2</t>
-  </si>
-  <si>
-    <t>AIBDT</t>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Work Breakdown Structure Element (WBS Element)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Profit Center</t>
+  </si>
+  <si>
+    <t>Segment for Segmental Reporting</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Asset location</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Tax Jurisdiction</t>
+  </si>
+  <si>
+    <t>Account Number of Supplier (Other Key Word)</t>
+  </si>
+  <si>
+    <t>Asset Acquired Used</t>
+  </si>
+  <si>
+    <t>Manufacturer of asset</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Asset's Country/Region of Origin</t>
+  </si>
+  <si>
+    <t>Asset type name</t>
+  </si>
+  <si>
+    <t>In-House Production Percentage</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Company ID of Trading Partner</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Original Asset That Was Transferred</t>
+  </si>
+  <si>
+    <t>Original asset that was transferred</t>
   </si>
   <si>
     <t>Original Acquisition Date of AuC/ Transferred Asset (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>URJHR</t>
-  </si>
-  <si>
-    <t>Fiscal Year of Original Acquisition (4)</t>
-  </si>
-  <si>
-    <t>URWRT</t>
+    <t>Fiscal Year of Original Acquisition</t>
   </si>
   <si>
     <t>Original Acquisition Value</t>
   </si>
   <si>
-    <t>FAA_MD_ORG_ACQ_CURR</t>
-  </si>
-  <si>
-    <t>Original Acquisition Value Currency (5)</t>
-  </si>
-  <si>
-    <t>FINS_LEDGER_1</t>
-  </si>
-  <si>
-    <t>Ledger in General Ledger Accounting (2)</t>
-  </si>
-  <si>
-    <t>AKTIVD_1</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Original Acquisition Value Currency</t>
+  </si>
+  <si>
+    <t>Ledger in General Ledger Accounting</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Asset Capitalization Date (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>FINS_LEDGER_2</t>
-  </si>
-  <si>
-    <t>AKTIVD_2</t>
-  </si>
-  <si>
-    <t>FINS_LEDGER_3</t>
-  </si>
-  <si>
-    <t>AKTIVD_3</t>
-  </si>
-  <si>
-    <t>AFABER_1</t>
-  </si>
-  <si>
-    <t>Depreciation Area Real or Derived (2)</t>
-  </si>
-  <si>
-    <t>AFASL_1</t>
-  </si>
-  <si>
-    <t>Depreciation Key (4)</t>
-  </si>
-  <si>
-    <t>NDJAR_1</t>
-  </si>
-  <si>
-    <t>NDPER_1</t>
-  </si>
-  <si>
-    <t>Planned useful life in periods (3)</t>
-  </si>
-  <si>
-    <t>ADATU_1</t>
-  </si>
-  <si>
-    <t>AFABER_2</t>
-  </si>
-  <si>
-    <t>AFASL_2</t>
-  </si>
-  <si>
-    <t>NDJAR_2</t>
-  </si>
-  <si>
-    <t>NDPER_2</t>
-  </si>
-  <si>
-    <t>ADATU_2</t>
-  </si>
-  <si>
-    <t>AFABER_3</t>
-  </si>
-  <si>
-    <t>AFASL_3</t>
-  </si>
-  <si>
-    <t>NDJAR_3</t>
-  </si>
-  <si>
-    <t>NDPER_3</t>
-  </si>
-  <si>
-    <t>ADATU_3</t>
-  </si>
-  <si>
-    <t>AFABER_4</t>
-  </si>
-  <si>
-    <t>AFASL_4</t>
-  </si>
-  <si>
-    <t>NDJAR_4</t>
-  </si>
-  <si>
-    <t>NDPER_4</t>
-  </si>
-  <si>
-    <t>ADATU_4</t>
-  </si>
-  <si>
-    <t>AFABER_5</t>
-  </si>
-  <si>
-    <t>AFASL_5</t>
-  </si>
-  <si>
-    <t>NDJAR_5</t>
-  </si>
-  <si>
-    <t>NDPER_5</t>
-  </si>
-  <si>
-    <t>ADATU_5</t>
-  </si>
-  <si>
-    <t>FIELD NAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>IMPORTANCE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
-    <t>Row Number</t>
-  </si>
-  <si>
-    <t>Mandatory for sheet</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Company Code</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Main Asset Number</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Asset Subnumber</t>
-  </si>
-  <si>
-    <t>Asset Description</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Additional asset description</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Inventory Number</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Base Unit of Measure</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Last Inventory Date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Inventory Indicator</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Supplementary Inventory Specifications</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Date for Beginning of Validity</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>Work Breakdown Structure Element (WBS Element)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Profit Center</t>
-  </si>
-  <si>
-    <t>Segment for Segmental Reporting</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Asset location</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Tax Jurisdiction</t>
-  </si>
-  <si>
-    <t>Account Number of Supplier (Other Key Word)</t>
-  </si>
-  <si>
-    <t>Asset Acquired Used</t>
-  </si>
-  <si>
-    <t>Manufacturer of Asset</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Asset's Country/Region of Origin</t>
-  </si>
-  <si>
-    <t>Asset type name</t>
-  </si>
-  <si>
-    <t>In-House Production Percentage</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Company ID of Trading Partner</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Original Asset That Was Transferred</t>
-  </si>
-  <si>
-    <t>Original Acquisition Date of AuC/ Transferred Asset</t>
-  </si>
-  <si>
-    <t>Fiscal Year of Original Acquisition</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Original Acquisition Value Currency</t>
-  </si>
-  <si>
-    <t>Ledger in General Ledger Accounting</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Asset Capitalization Date</t>
-  </si>
-  <si>
     <t>Depreciation Area Real or Derived</t>
   </si>
   <si>
     <t>Depreciation Key</t>
   </si>
   <si>
-    <t>Planned Useful Life in Years</t>
+    <t>Planned useful life in years</t>
   </si>
   <si>
     <t>Planned useful life in periods</t>
@@ -783,107 +783,98 @@
     <t>AuC Intangible (4010) - For this kind of assets, INVNR_ANLA (inventory number) can be filled but no other inventory information can be inserted. Information like HERST (Manufacturer), AM_LAND1 (country/reg. of origin), ANTEI (inhouse production percentage) and TYPBZ_ANLA (type name) can be changed.</t>
   </si>
   <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>Change scenario 1</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 1</t>
+  </si>
+  <si>
+    <t>LTP111000000000000</t>
+  </si>
+  <si>
+    <t>YB_1702</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>LINS</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>LINI</t>
   </si>
   <si>
-    <t>Change scenario 1</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>MANU</t>
   </si>
   <si>
     <t>Change scenario 2</t>
   </si>
   <si>
+    <t>Change scenario additional description 2</t>
+  </si>
+  <si>
+    <t>LTP111000000000001</t>
+  </si>
+  <si>
+    <t>17101904</t>
+  </si>
+  <si>
+    <t>YB103</t>
+  </si>
+  <si>
+    <t>CHNG</t>
+  </si>
+  <si>
     <t>Change scenario 3</t>
   </si>
   <si>
+    <t>Change scenario additional description 3</t>
+  </si>
+  <si>
+    <t>LTP111000000000002</t>
+  </si>
+  <si>
     <t>Change scenario 4</t>
   </si>
   <si>
+    <t>Change scenario additional description 4</t>
+  </si>
+  <si>
+    <t>LTP111000000000003</t>
+  </si>
+  <si>
     <t>Change scenario 5</t>
   </si>
   <si>
+    <t>Change scenario additional description 5</t>
+  </si>
+  <si>
+    <t>LTP111000000000004</t>
+  </si>
+  <si>
     <t>Change scenario 6</t>
   </si>
   <si>
-    <t>Change scenario additional description 1</t>
-  </si>
-  <si>
-    <t>Change scenario additional description 2</t>
-  </si>
-  <si>
-    <t>Change scenario additional description 3</t>
-  </si>
-  <si>
-    <t>Change scenario additional description 4</t>
-  </si>
-  <si>
-    <t>Change scenario additional description 5</t>
-  </si>
-  <si>
     <t>Change scenario additional description 6</t>
   </si>
   <si>
-    <t>LTP111000000000000</t>
-  </si>
-  <si>
-    <t>LTP111000000000001</t>
-  </si>
-  <si>
-    <t>LTP111000000000002</t>
-  </si>
-  <si>
-    <t>LTP111000000000003</t>
-  </si>
-  <si>
-    <t>LTP111000000000004</t>
-  </si>
-  <si>
     <t>LTP111000000000005</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>CHNG</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>YB_1702</t>
-  </si>
-  <si>
-    <t>LINS</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Original asset that was transferred (4)</t>
-  </si>
-  <si>
-    <t>Manufacturer of asset (30)</t>
-  </si>
-  <si>
-    <t>Planned useful life in years (3)</t>
-  </si>
-  <si>
-    <t>MANU</t>
-  </si>
-  <si>
-    <t>YB103</t>
-  </si>
-  <si>
-    <t>17101904</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -913,11 +904,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -957,22 +943,22 @@
   <cellXfs count="10">
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1298,418 +1284,415 @@
     <col min="1" max="1" width="250" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1722,282 +1705,296 @@
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
         <v>114</v>
       </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
         <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
         <v>116</v>
@@ -2005,668 +2002,651 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
         <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
         <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
         <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D64" t="s">
         <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" t="s">
-        <v>130</v>
-      </c>
-      <c r="E67" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -2674,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2686,12 +2666,13 @@
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="51" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -2709,54 +2690,54 @@
     <col min="28" max="28" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="64" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="68" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="47" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2834,127 +2815,127 @@
         <v>49</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
@@ -3028,127 +3009,127 @@
         <v>48</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>274</v>
+        <v>62</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AK5" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="AL5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AM5" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="AN5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BC5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BH5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="BL5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BM5" s="2" t="s">
         <v>28</v>
@@ -3156,385 +3137,380 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU6" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="S6" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AV6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AR6" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT6" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU6" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY6" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ6" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA6" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="BB6" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="I7" s="7"/>
       <c r="N7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>278</v>
+        <v>267</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO7" s="8">
+        <v>269</v>
+      </c>
+      <c r="AO7" s="9">
         <v>1</v>
       </c>
       <c r="AP7" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AQ7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AR7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT7" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY7" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ7" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA7" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="BB7" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>263</v>
+        <v>271</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="I8" s="7"/>
       <c r="N8" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>278</v>
+        <v>267</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO8" s="8">
+        <v>258</v>
+      </c>
+      <c r="AO8" s="9">
         <v>1</v>
       </c>
       <c r="AP8" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AQ8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AR8" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY8" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ8" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA8" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="BB8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO9" s="8">
+        <v>269</v>
+      </c>
+      <c r="AO9" s="9">
         <v>1</v>
       </c>
       <c r="AP9" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AQ9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY9" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AR9" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT9" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ9" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA9" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="BB9" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>265</v>
+        <v>277</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="I10" s="7"/>
       <c r="N10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>278</v>
+        <v>267</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO10" s="8">
+        <v>258</v>
+      </c>
+      <c r="AO10" s="9">
         <v>1</v>
       </c>
       <c r="AP10" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AQ10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AR10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA10" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="BB10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT11" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="AQ11" s="7" t="s">
+      <c r="AU11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AR11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AV11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA11" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="BB11" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:BM11" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/mark_csaszar_sap_com/Documents/Projects/Scrum Master/START/MPA/new_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i503773/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_64198BB546675CC194AA0176F4D421490D6A2630" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C851BC6-C8FB-ED46-918B-424769524752}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2502A05D-4CB5-2D4B-A081-621C3002A426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10160" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="283">
   <si>
     <t>Asset Mass Change</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>LTP111000000000005</t>
+  </si>
+  <si>
+    <t>2022-01-02</t>
   </si>
 </sst>
 </file>
@@ -2654,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3347,6 +3350,9 @@
       <c r="Z9" s="7" t="s">
         <v>269</v>
       </c>
+      <c r="AJ9" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="AO9" s="9">
         <v>1</v>
       </c>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i503773/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2502A05D-4CB5-2D4B-A081-621C3002A426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0920B6E0-DB11-6643-BA3E-90D6FFD16E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="284">
   <si>
     <t>Asset Mass Change</t>
   </si>
@@ -871,6 +871,9 @@
   </si>
   <si>
     <t>2022-01-02</t>
+  </si>
+  <si>
+    <t>2L</t>
   </si>
 </sst>
 </file>
@@ -2657,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3350,6 +3353,9 @@
       <c r="Z9" s="7" t="s">
         <v>269</v>
       </c>
+      <c r="AI9" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="AJ9" s="1" t="s">
         <v>282</v>
       </c>

--- a/01_change_template.xlsx
+++ b/01_change_template.xlsx
@@ -5,24 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i503773/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I503773/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0920B6E0-DB11-6643-BA3E-90D6FFD16E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45E52F4-3427-954E-AF4A-61BB2A792FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7100" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
     <sheet name="Field List" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$5:$BM$11</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="281">
   <si>
     <t>Asset Mass Change</t>
   </si>
@@ -369,7 +372,7 @@
     <t>Mandatory for sheet</t>
   </si>
   <si>
-    <t>number</t>
+    <t>Number</t>
   </si>
   <si>
     <t>10</t>
@@ -378,7 +381,7 @@
     <t>Company Code</t>
   </si>
   <si>
-    <t>text</t>
+    <t>Text</t>
   </si>
   <si>
     <t>4</t>
@@ -423,7 +426,7 @@
     <t>Last Inventory Date (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>date</t>
+    <t>Date</t>
   </si>
   <si>
     <t>8</t>
@@ -582,21 +585,12 @@
     <t>You can view the data type for a field in row 8 (see 'Viewing Additional Information for Each Column' above). Depending on the field, one of the following data types may be required:</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Letters, numbers, and special characters are permitted. Preceding zeros are accepted as text.</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Enter numbers with decimals using either comma or decimal point. Number in sap user settings is accepted as well.</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Enter the date in ISO format only YYYY-MM-DD</t>
   </si>
   <si>
@@ -795,12 +789,72 @@
     <t>LTP111000000000000</t>
   </si>
   <si>
+    <t>Change scenario 2</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 2</t>
+  </si>
+  <si>
+    <t>LTP111000000000001</t>
+  </si>
+  <si>
+    <t>Change scenario 3</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 3</t>
+  </si>
+  <si>
+    <t>LTP111000000000002</t>
+  </si>
+  <si>
+    <t>Change scenario 4</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 4</t>
+  </si>
+  <si>
+    <t>LTP111000000000003</t>
+  </si>
+  <si>
+    <t>Change scenario 5</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 5</t>
+  </si>
+  <si>
+    <t>LTP111000000000004</t>
+  </si>
+  <si>
+    <t>Change scenario 6</t>
+  </si>
+  <si>
+    <t>Change scenario additional description 6</t>
+  </si>
+  <si>
+    <t>LTP111000000000005</t>
+  </si>
+  <si>
+    <t>17101904</t>
+  </si>
+  <si>
+    <t>YB103</t>
+  </si>
+  <si>
     <t>YB_1702</t>
   </si>
   <si>
     <t>DE</t>
   </si>
   <si>
+    <t>CHNG</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>2022-01-02</t>
+  </si>
+  <si>
     <t>LINS</t>
   </si>
   <si>
@@ -814,66 +868,6 @@
   </si>
   <si>
     <t>MANU</t>
-  </si>
-  <si>
-    <t>Change scenario 2</t>
-  </si>
-  <si>
-    <t>Change scenario additional description 2</t>
-  </si>
-  <si>
-    <t>LTP111000000000001</t>
-  </si>
-  <si>
-    <t>17101904</t>
-  </si>
-  <si>
-    <t>YB103</t>
-  </si>
-  <si>
-    <t>CHNG</t>
-  </si>
-  <si>
-    <t>Change scenario 3</t>
-  </si>
-  <si>
-    <t>Change scenario additional description 3</t>
-  </si>
-  <si>
-    <t>LTP111000000000002</t>
-  </si>
-  <si>
-    <t>Change scenario 4</t>
-  </si>
-  <si>
-    <t>Change scenario additional description 4</t>
-  </si>
-  <si>
-    <t>LTP111000000000003</t>
-  </si>
-  <si>
-    <t>Change scenario 5</t>
-  </si>
-  <si>
-    <t>Change scenario additional description 5</t>
-  </si>
-  <si>
-    <t>LTP111000000000004</t>
-  </si>
-  <si>
-    <t>Change scenario 6</t>
-  </si>
-  <si>
-    <t>Change scenario additional description 6</t>
-  </si>
-  <si>
-    <t>LTP111000000000005</t>
-  </si>
-  <si>
-    <t>2022-01-02</t>
-  </si>
-  <si>
-    <t>2L</t>
   </si>
 </sst>
 </file>
@@ -947,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1357,337 +1351,337 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2660,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2944,7 +2938,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3146,29 +3140,28 @@
         <v>136</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="S6" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AO6" s="9">
         <v>1</v>
       </c>
       <c r="AP6" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AQ6" s="7" t="s">
         <v>119</v>
@@ -3177,10 +3170,10 @@
         <v>167</v>
       </c>
       <c r="AT6" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AU6" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AV6" s="7" t="s">
         <v>134</v>
@@ -3189,10 +3182,10 @@
         <v>119</v>
       </c>
       <c r="AY6" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AZ6" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="BA6" s="7" t="s">
         <v>116</v>
@@ -3206,33 +3199,31 @@
         <v>167</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>250</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
       <c r="N7" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AO7" s="9">
         <v>1</v>
       </c>
       <c r="AP7" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AQ7" s="7" t="s">
         <v>119</v>
@@ -3241,10 +3232,10 @@
         <v>167</v>
       </c>
       <c r="AT7" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AU7" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AV7" s="7" t="s">
         <v>134</v>
@@ -3253,10 +3244,10 @@
         <v>119</v>
       </c>
       <c r="AY7" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AZ7" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="BA7" s="7" t="s">
         <v>116</v>
@@ -3266,38 +3257,35 @@
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+        <v>250</v>
+      </c>
       <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="Y8" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="N8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="AO8" s="9">
         <v>1</v>
       </c>
       <c r="AP8" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AQ8" s="7" t="s">
         <v>119</v>
@@ -3306,10 +3294,10 @@
         <v>167</v>
       </c>
       <c r="AT8" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AU8" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AV8" s="7" t="s">
         <v>134</v>
@@ -3318,10 +3306,10 @@
         <v>119</v>
       </c>
       <c r="AY8" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AZ8" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="BA8" s="7" t="s">
         <v>116</v>
@@ -3331,39 +3319,38 @@
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>250</v>
+      </c>
       <c r="E9" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z9" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="AI9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z9" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="AO9" s="9">
         <v>1</v>
       </c>
       <c r="AP9" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AQ9" s="7" t="s">
         <v>119</v>
@@ -3372,10 +3359,10 @@
         <v>167</v>
       </c>
       <c r="AT9" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AU9" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AV9" s="7" t="s">
         <v>134</v>
@@ -3384,10 +3371,10 @@
         <v>119</v>
       </c>
       <c r="AY9" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AZ9" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="BA9" s="7" t="s">
         <v>116</v>
@@ -3397,38 +3384,35 @@
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+        <v>250</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>265</v>
+      </c>
       <c r="N10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AO10" s="9">
         <v>1</v>
       </c>
       <c r="AP10" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AQ10" s="7" t="s">
         <v>119</v>
@@ -3437,10 +3421,10 @@
         <v>167</v>
       </c>
       <c r="AT10" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AV10" s="7" t="s">
         <v>134</v>
@@ -3449,10 +3433,10 @@
         <v>119</v>
       </c>
       <c r="AY10" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AZ10" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="BA10" s="7" t="s">
         <v>116</v>
@@ -3462,33 +3446,32 @@
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>158</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>250</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AO11" s="9">
         <v>1</v>
       </c>
       <c r="AP11" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AQ11" s="7" t="s">
         <v>119</v>
@@ -3497,10 +3480,10 @@
         <v>167</v>
       </c>
       <c r="AT11" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AU11" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AV11" s="7" t="s">
         <v>134</v>
@@ -3509,10 +3492,10 @@
         <v>119</v>
       </c>
       <c r="AY11" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AZ11" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="BA11" s="7" t="s">
         <v>116</v>
@@ -3522,6 +3505,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:BM11" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
